--- a/src/test/java/excel/export/export3.xlsx
+++ b/src/test/java/excel/export/export3.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="8">
   <si>
     <t>學生基本信息</t>
   </si>
@@ -36,9 +36,6 @@
   </si>
   <si>
     <t>世紀學校</t>
-  </si>
-  <si>
-    <t>張無忌</t>
   </si>
 </sst>
 </file>
@@ -237,8 +234,8 @@
       <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
+      <c r="D3" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -251,8 +248,8 @@
       <c r="C4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>8</v>
+      <c r="D4" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="5">
@@ -265,8 +262,8 @@
       <c r="C5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
+      <c r="D5" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -279,8 +276,8 @@
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
+      <c r="D6" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -293,8 +290,8 @@
       <c r="C7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>8</v>
+      <c r="D7" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -307,8 +304,8 @@
       <c r="C8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>8</v>
+      <c r="D8" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -321,8 +318,8 @@
       <c r="C9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>8</v>
+      <c r="D9" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="10">
@@ -335,8 +332,8 @@
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>8</v>
+      <c r="D10" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="11">
@@ -349,8 +346,8 @@
       <c r="C11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>8</v>
+      <c r="D11" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="12">
@@ -363,8 +360,8 @@
       <c r="C12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -377,8 +374,8 @@
       <c r="C13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>8</v>
+      <c r="D13" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="14">
@@ -391,8 +388,8 @@
       <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="15">
@@ -405,8 +402,8 @@
       <c r="C15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>8</v>
+      <c r="D15" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="16">
@@ -419,8 +416,8 @@
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
+      <c r="D16" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
@@ -433,8 +430,8 @@
       <c r="C17" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
@@ -447,8 +444,8 @@
       <c r="C18" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
@@ -461,8 +458,8 @@
       <c r="C19" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
-        <v>8</v>
+      <c r="D19" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -475,8 +472,8 @@
       <c r="C20" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -489,8 +486,8 @@
       <c r="C21" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -503,8 +500,8 @@
       <c r="C22" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3" t="n">
+        <v>3.0</v>
       </c>
     </row>
   </sheetData>
